--- a/SchedulingData/dynamic15/pso/scheduling1_20.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,45 +462,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>72.12</v>
+        <v>59.16</v>
       </c>
       <c r="E2" t="n">
-        <v>25.968</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>72.12</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>114.22</v>
+        <v>57.12</v>
       </c>
       <c r="E3" t="n">
-        <v>23.888</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -519,26 +519,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>52.1</v>
+        <v>87.5</v>
       </c>
       <c r="E5" t="n">
-        <v>27.48</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>114.22</v>
+        <v>38.24</v>
       </c>
       <c r="D6" t="n">
-        <v>164.32</v>
+        <v>78.44</v>
       </c>
       <c r="E6" t="n">
-        <v>20.508</v>
+        <v>23.496</v>
       </c>
     </row>
     <row r="7">
@@ -561,454 +561,454 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38.24</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>114.46</v>
+        <v>62.78</v>
       </c>
       <c r="E7" t="n">
-        <v>23.324</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>52.1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>113.3</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>23.96</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>114.46</v>
+        <v>87.5</v>
       </c>
       <c r="D9" t="n">
-        <v>195.86</v>
+        <v>150.08</v>
       </c>
       <c r="E9" t="n">
-        <v>18.764</v>
+        <v>21.792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>195.86</v>
+        <v>78.44</v>
       </c>
       <c r="D10" t="n">
-        <v>246.14</v>
+        <v>159.24</v>
       </c>
       <c r="E10" t="n">
-        <v>15.356</v>
+        <v>18.516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>40.08</v>
+        <v>128.86</v>
       </c>
       <c r="E11" t="n">
-        <v>27.192</v>
+        <v>22.384</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>62.78</v>
       </c>
       <c r="D12" t="n">
-        <v>66.36</v>
+        <v>116.44</v>
       </c>
       <c r="E12" t="n">
-        <v>26.024</v>
+        <v>23.676</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>113.3</v>
+        <v>159.24</v>
       </c>
       <c r="D13" t="n">
-        <v>185.48</v>
+        <v>215.36</v>
       </c>
       <c r="E13" t="n">
-        <v>19.852</v>
+        <v>15.524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>185.48</v>
+        <v>150.08</v>
       </c>
       <c r="D14" t="n">
-        <v>233.28</v>
+        <v>214.16</v>
       </c>
       <c r="E14" t="n">
-        <v>16.212</v>
+        <v>18.984</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>40.08</v>
+        <v>59.16</v>
       </c>
       <c r="D15" t="n">
-        <v>87.14</v>
+        <v>111.34</v>
       </c>
       <c r="E15" t="n">
-        <v>24.596</v>
+        <v>23.156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>233.28</v>
+        <v>128.86</v>
       </c>
       <c r="D16" t="n">
-        <v>280.68</v>
+        <v>173.34</v>
       </c>
       <c r="E16" t="n">
-        <v>13.092</v>
+        <v>18.576</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>164.32</v>
+        <v>57.12</v>
       </c>
       <c r="D17" t="n">
-        <v>219.32</v>
+        <v>123.16</v>
       </c>
       <c r="E17" t="n">
-        <v>17.648</v>
+        <v>21.964</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>246.14</v>
+        <v>123.16</v>
       </c>
       <c r="D18" t="n">
-        <v>318.22</v>
+        <v>167.12</v>
       </c>
       <c r="E18" t="n">
-        <v>11.768</v>
+        <v>18.708</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>66.36</v>
+        <v>214.16</v>
       </c>
       <c r="D19" t="n">
-        <v>116.16</v>
+        <v>272.8</v>
       </c>
       <c r="E19" t="n">
-        <v>22.664</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>116.16</v>
+        <v>116.44</v>
       </c>
       <c r="D20" t="n">
-        <v>160.6</v>
+        <v>170.14</v>
       </c>
       <c r="E20" t="n">
-        <v>19.36</v>
+        <v>20.436</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>219.32</v>
+        <v>215.36</v>
       </c>
       <c r="D21" t="n">
-        <v>285.04</v>
+        <v>276.86</v>
       </c>
       <c r="E21" t="n">
-        <v>14.656</v>
+        <v>12.004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>160.6</v>
+        <v>170.14</v>
       </c>
       <c r="D22" t="n">
-        <v>221.1</v>
+        <v>235.42</v>
       </c>
       <c r="E22" t="n">
-        <v>14.44</v>
+        <v>17.028</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>87.14</v>
+        <v>276.86</v>
       </c>
       <c r="D23" t="n">
-        <v>135.7</v>
+        <v>309.86</v>
       </c>
       <c r="E23" t="n">
-        <v>21.86</v>
+        <v>9.843999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>318.22</v>
+        <v>111.34</v>
       </c>
       <c r="D24" t="n">
-        <v>367.08</v>
+        <v>156.24</v>
       </c>
       <c r="E24" t="n">
-        <v>8.512</v>
+        <v>19.796</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>135.7</v>
+        <v>173.34</v>
       </c>
       <c r="D25" t="n">
-        <v>179.64</v>
+        <v>235.84</v>
       </c>
       <c r="E25" t="n">
-        <v>18.596</v>
+        <v>14.936</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>367.08</v>
+        <v>235.84</v>
       </c>
       <c r="D26" t="n">
-        <v>415.84</v>
+        <v>281.16</v>
       </c>
       <c r="E26" t="n">
-        <v>5.256</v>
+        <v>12.024</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>280.68</v>
+        <v>309.86</v>
       </c>
       <c r="D27" t="n">
-        <v>338.72</v>
+        <v>394.96</v>
       </c>
       <c r="E27" t="n">
-        <v>10.388</v>
+        <v>4.924</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.24</v>
       </c>
       <c r="D28" t="n">
-        <v>59.3</v>
+        <v>212.5</v>
       </c>
       <c r="E28" t="n">
-        <v>26.76</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>415.84</v>
+        <v>167.12</v>
       </c>
       <c r="D29" t="n">
-        <v>495.76</v>
+        <v>224.18</v>
       </c>
       <c r="E29" t="n">
-        <v>2.344</v>
+        <v>16.112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>221.1</v>
+        <v>281.16</v>
       </c>
       <c r="D30" t="n">
-        <v>271.1</v>
+        <v>351.34</v>
       </c>
       <c r="E30" t="n">
-        <v>11.06</v>
+        <v>9.076000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1017,36 +1017,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>271.1</v>
+        <v>224.18</v>
       </c>
       <c r="D31" t="n">
-        <v>332.44</v>
+        <v>278.88</v>
       </c>
       <c r="E31" t="n">
-        <v>7.056</v>
+        <v>13.252</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>332.44</v>
+        <v>212.5</v>
       </c>
       <c r="D32" t="n">
-        <v>403.44</v>
+        <v>275.7</v>
       </c>
       <c r="E32" t="n">
-        <v>2.076</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="33">
@@ -1055,90 +1055,90 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>179.64</v>
+        <v>272.8</v>
       </c>
       <c r="D33" t="n">
-        <v>234.72</v>
+        <v>311.46</v>
       </c>
       <c r="E33" t="n">
-        <v>15.208</v>
+        <v>12.984</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>234.72</v>
+        <v>275.7</v>
       </c>
       <c r="D34" t="n">
-        <v>287.4</v>
+        <v>324.76</v>
       </c>
       <c r="E34" t="n">
-        <v>11.56</v>
+        <v>8.824</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>59.3</v>
+        <v>311.46</v>
       </c>
       <c r="D35" t="n">
-        <v>124.8</v>
+        <v>367.52</v>
       </c>
       <c r="E35" t="n">
-        <v>21.84</v>
+        <v>9.007999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>287.4</v>
+        <v>394.96</v>
       </c>
       <c r="D36" t="n">
-        <v>344.3</v>
+        <v>447.76</v>
       </c>
       <c r="E36" t="n">
-        <v>8.48</v>
+        <v>1.264</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>495.76</v>
+        <v>447.76</v>
       </c>
       <c r="D37" t="n">
-        <v>558.0700000000001</v>
+        <v>522.03</v>
       </c>
       <c r="E37" t="n">
         <v>30</v>
@@ -1146,40 +1146,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>558.0700000000001</v>
+        <v>324.76</v>
       </c>
       <c r="D38" t="n">
-        <v>614.9299999999999</v>
+        <v>382.16</v>
       </c>
       <c r="E38" t="n">
-        <v>26.984</v>
+        <v>5.704</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>403.44</v>
+        <v>351.34</v>
       </c>
       <c r="D39" t="n">
-        <v>485.89</v>
+        <v>396.52</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>5.688</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>485.89</v>
+        <v>278.88</v>
       </c>
       <c r="D40" t="n">
-        <v>569.35</v>
+        <v>375.38</v>
       </c>
       <c r="E40" t="n">
-        <v>26.304</v>
+        <v>10.172</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>338.72</v>
+        <v>235.42</v>
       </c>
       <c r="D41" t="n">
-        <v>406.52</v>
+        <v>296.94</v>
       </c>
       <c r="E41" t="n">
-        <v>6.728</v>
+        <v>13.476</v>
       </c>
     </row>
     <row r="42">
@@ -1226,169 +1226,169 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>406.52</v>
+        <v>382.16</v>
       </c>
       <c r="D42" t="n">
-        <v>463.7</v>
+        <v>456.08</v>
       </c>
       <c r="E42" t="n">
-        <v>3.14</v>
+        <v>1.912</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>285.04</v>
+        <v>456.08</v>
       </c>
       <c r="D43" t="n">
-        <v>337.34</v>
+        <v>543.86</v>
       </c>
       <c r="E43" t="n">
-        <v>11.536</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>337.34</v>
+        <v>367.52</v>
       </c>
       <c r="D44" t="n">
-        <v>382.66</v>
+        <v>405.96</v>
       </c>
       <c r="E44" t="n">
-        <v>8.624000000000001</v>
+        <v>6.304</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>124.8</v>
+        <v>296.94</v>
       </c>
       <c r="D45" t="n">
-        <v>196.42</v>
+        <v>337.14</v>
       </c>
       <c r="E45" t="n">
-        <v>17.808</v>
+        <v>10.096</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>196.42</v>
+        <v>543.86</v>
       </c>
       <c r="D46" t="n">
-        <v>240.48</v>
+        <v>606.74</v>
       </c>
       <c r="E46" t="n">
-        <v>14.532</v>
+        <v>25.892</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>240.48</v>
+        <v>375.38</v>
       </c>
       <c r="D47" t="n">
-        <v>303.58</v>
+        <v>424.72</v>
       </c>
       <c r="E47" t="n">
-        <v>9.852</v>
+        <v>6.868</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>382.66</v>
+        <v>424.72</v>
       </c>
       <c r="D48" t="n">
-        <v>452.14</v>
+        <v>505.34</v>
       </c>
       <c r="E48" t="n">
-        <v>4.816</v>
+        <v>2.916</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>344.3</v>
+        <v>337.14</v>
       </c>
       <c r="D49" t="n">
-        <v>412.22</v>
+        <v>409.34</v>
       </c>
       <c r="E49" t="n">
-        <v>5.288</v>
+        <v>6.976</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>303.58</v>
+        <v>409.34</v>
       </c>
       <c r="D50" t="n">
-        <v>367.8</v>
+        <v>484.74</v>
       </c>
       <c r="E50" t="n">
-        <v>6.06</v>
+        <v>2.056</v>
       </c>
     </row>
     <row r="51">
@@ -1397,55 +1397,55 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>412.22</v>
+        <v>405.96</v>
       </c>
       <c r="D51" t="n">
-        <v>461.98</v>
+        <v>475.06</v>
       </c>
       <c r="E51" t="n">
-        <v>2.432</v>
+        <v>1.504</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>463.7</v>
+        <v>475.06</v>
       </c>
       <c r="D52" t="n">
-        <v>517.36</v>
+        <v>578.35</v>
       </c>
       <c r="E52" t="n">
-        <v>0.404</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>517.36</v>
+        <v>396.52</v>
       </c>
       <c r="D53" t="n">
-        <v>598.35</v>
+        <v>482.74</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>1.656</v>
       </c>
     </row>
     <row r="54">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>452.14</v>
+        <v>482.74</v>
       </c>
       <c r="D54" t="n">
-        <v>507.82</v>
+        <v>561.33</v>
       </c>
       <c r="E54" t="n">
-        <v>1.868</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -1473,52 +1473,52 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>507.82</v>
+        <v>561.33</v>
       </c>
       <c r="D55" t="n">
-        <v>605.38</v>
+        <v>603.4299999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>30</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>569.35</v>
+        <v>522.03</v>
       </c>
       <c r="D56" t="n">
-        <v>655.0700000000001</v>
+        <v>581.3099999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>22.352</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>461.98</v>
+        <v>484.74</v>
       </c>
       <c r="D57" t="n">
-        <v>534.02</v>
+        <v>572.13</v>
       </c>
       <c r="E57" t="n">
         <v>30</v>
@@ -1526,78 +1526,97 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>534.02</v>
+        <v>572.13</v>
       </c>
       <c r="D58" t="n">
-        <v>593.3</v>
+        <v>622.59</v>
       </c>
       <c r="E58" t="n">
-        <v>26.752</v>
+        <v>27.144</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>598.35</v>
+        <v>603.4299999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>683.95</v>
+        <v>630.63</v>
       </c>
       <c r="E59" t="n">
-        <v>26.08</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>367.8</v>
+        <v>505.34</v>
       </c>
       <c r="D60" t="n">
-        <v>410.7</v>
+        <v>550.66</v>
       </c>
       <c r="E60" t="n">
-        <v>3.9</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>593.3</v>
+        <v>550.66</v>
       </c>
       <c r="D61" t="n">
-        <v>697.2</v>
+        <v>652.15</v>
       </c>
       <c r="E61" t="n">
-        <v>21.952</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>pond37</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>606.74</v>
+      </c>
+      <c r="D62" t="n">
+        <v>654.96</v>
+      </c>
+      <c r="E62" t="n">
+        <v>22.7</v>
       </c>
     </row>
   </sheetData>
